--- a/data/raw_data/GA/pop_est_2020-2021_ga.xlsx
+++ b/data/raw_data/GA/pop_est_2020-2021_ga.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\GA\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9501CB81-B9A6-4546-A1CC-32F4ABF8E2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C263D1D7-D4C4-41D7-B0AD-0FD9F2FF4EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>Georgia</t>
   </si>
@@ -3622,7 +3622,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3:B4"/>
     </sheetView>
@@ -5976,10 +5976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E441B-A2C9-4722-A1D1-A8F640E06FC8}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161:XFD161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8229,20 +8229,6 @@
         <v>20554</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B161">
-        <v>10711908</v>
-      </c>
-      <c r="C161">
-        <v>10725800</v>
-      </c>
-      <c r="D161">
-        <v>10799566</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
